--- a/dados/cnv.xlsx
+++ b/dados/cnv.xlsx
@@ -1,26 +1,1081 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RK2\OneDrive\Área de Trabalho\Gerar PDFs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AEBD83-3E8C-40DE-9856-BDEDE0FF4812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$B$321</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="343">
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0039</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>0046</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0056</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>0072</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>0086</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0089</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>0091</t>
+  </si>
+  <si>
+    <t>0092</t>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0094</t>
+  </si>
+  <si>
+    <t>0095</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>0097</t>
+  </si>
+  <si>
+    <t>0098</t>
+  </si>
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>0113</t>
+  </si>
+  <si>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>0125</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>0127</t>
+  </si>
+  <si>
+    <t>0128</t>
+  </si>
+  <si>
+    <t>0129</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>0131</t>
+  </si>
+  <si>
+    <t>0132</t>
+  </si>
+  <si>
+    <t>0133</t>
+  </si>
+  <si>
+    <t>0134</t>
+  </si>
+  <si>
+    <t>0135</t>
+  </si>
+  <si>
+    <t>0136</t>
+  </si>
+  <si>
+    <t>0137</t>
+  </si>
+  <si>
+    <t>0138</t>
+  </si>
+  <si>
+    <t>0139</t>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>0141</t>
+  </si>
+  <si>
+    <t>0142</t>
+  </si>
+  <si>
+    <t>0143</t>
+  </si>
+  <si>
+    <t>0144</t>
+  </si>
+  <si>
+    <t>0145</t>
+  </si>
+  <si>
+    <t>0146</t>
+  </si>
+  <si>
+    <t>0147</t>
+  </si>
+  <si>
+    <t>0148</t>
+  </si>
+  <si>
+    <t>0149</t>
+  </si>
+  <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>0151</t>
+  </si>
+  <si>
+    <t>0152</t>
+  </si>
+  <si>
+    <t>0153</t>
+  </si>
+  <si>
+    <t>0154</t>
+  </si>
+  <si>
+    <t>0155</t>
+  </si>
+  <si>
+    <t>0156</t>
+  </si>
+  <si>
+    <t>0157</t>
+  </si>
+  <si>
+    <t>0158</t>
+  </si>
+  <si>
+    <t>0159</t>
+  </si>
+  <si>
+    <t>0160</t>
+  </si>
+  <si>
+    <t>0161</t>
+  </si>
+  <si>
+    <t>0162</t>
+  </si>
+  <si>
+    <t>0163</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>0165</t>
+  </si>
+  <si>
+    <t>0166</t>
+  </si>
+  <si>
+    <t>0167</t>
+  </si>
+  <si>
+    <t>0168</t>
+  </si>
+  <si>
+    <t>0169</t>
+  </si>
+  <si>
+    <t>0170</t>
+  </si>
+  <si>
+    <t>0171</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>0173</t>
+  </si>
+  <si>
+    <t>0174</t>
+  </si>
+  <si>
+    <t>0175</t>
+  </si>
+  <si>
+    <t>0176</t>
+  </si>
+  <si>
+    <t>0177</t>
+  </si>
+  <si>
+    <t>0178</t>
+  </si>
+  <si>
+    <t>0179</t>
+  </si>
+  <si>
+    <t>0180</t>
+  </si>
+  <si>
+    <t>0181</t>
+  </si>
+  <si>
+    <t>0182</t>
+  </si>
+  <si>
+    <t>0183</t>
+  </si>
+  <si>
+    <t>0184</t>
+  </si>
+  <si>
+    <t>0185</t>
+  </si>
+  <si>
+    <t>0186</t>
+  </si>
+  <si>
+    <t>0187</t>
+  </si>
+  <si>
+    <t>0188</t>
+  </si>
+  <si>
+    <t>0189</t>
+  </si>
+  <si>
+    <t>0190</t>
+  </si>
+  <si>
+    <t>0191</t>
+  </si>
+  <si>
+    <t>0192</t>
+  </si>
+  <si>
+    <t>0193</t>
+  </si>
+  <si>
+    <t>0194</t>
+  </si>
+  <si>
+    <t>0195</t>
+  </si>
+  <si>
+    <t>0196</t>
+  </si>
+  <si>
+    <t>0197</t>
+  </si>
+  <si>
+    <t>0198</t>
+  </si>
+  <si>
+    <t>0199</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>0209</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <t>0213</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>0216</t>
+  </si>
+  <si>
+    <t>0217</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0219</t>
+  </si>
+  <si>
+    <t>0220</t>
+  </si>
+  <si>
+    <t>0221</t>
+  </si>
+  <si>
+    <t>0222</t>
+  </si>
+  <si>
+    <t>0223</t>
+  </si>
+  <si>
+    <t>0224</t>
+  </si>
+  <si>
+    <t>0225</t>
+  </si>
+  <si>
+    <t>0226</t>
+  </si>
+  <si>
+    <t>0227</t>
+  </si>
+  <si>
+    <t>0228</t>
+  </si>
+  <si>
+    <t>0229</t>
+  </si>
+  <si>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>0232</t>
+  </si>
+  <si>
+    <t>0233</t>
+  </si>
+  <si>
+    <t>0234</t>
+  </si>
+  <si>
+    <t>0235</t>
+  </si>
+  <si>
+    <t>0236</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>0238</t>
+  </si>
+  <si>
+    <t>0239</t>
+  </si>
+  <si>
+    <t>0240</t>
+  </si>
+  <si>
+    <t>0241</t>
+  </si>
+  <si>
+    <t>0242</t>
+  </si>
+  <si>
+    <t>0243</t>
+  </si>
+  <si>
+    <t>0244</t>
+  </si>
+  <si>
+    <t>0245</t>
+  </si>
+  <si>
+    <t>0246</t>
+  </si>
+  <si>
+    <t>0247</t>
+  </si>
+  <si>
+    <t>0248</t>
+  </si>
+  <si>
+    <t>0249</t>
+  </si>
+  <si>
+    <t>0250</t>
+  </si>
+  <si>
+    <t>0251</t>
+  </si>
+  <si>
+    <t>0252</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>0254</t>
+  </si>
+  <si>
+    <t>0255</t>
+  </si>
+  <si>
+    <t>0256</t>
+  </si>
+  <si>
+    <t>0257</t>
+  </si>
+  <si>
+    <t>0258</t>
+  </si>
+  <si>
+    <t>0259</t>
+  </si>
+  <si>
+    <t>0260</t>
+  </si>
+  <si>
+    <t>0261</t>
+  </si>
+  <si>
+    <t>0262</t>
+  </si>
+  <si>
+    <t>0263</t>
+  </si>
+  <si>
+    <t>0264</t>
+  </si>
+  <si>
+    <t>0265</t>
+  </si>
+  <si>
+    <t>0266</t>
+  </si>
+  <si>
+    <t>0267</t>
+  </si>
+  <si>
+    <t>0268</t>
+  </si>
+  <si>
+    <t>0269</t>
+  </si>
+  <si>
+    <t>0270</t>
+  </si>
+  <si>
+    <t>0271</t>
+  </si>
+  <si>
+    <t>0272</t>
+  </si>
+  <si>
+    <t>0273</t>
+  </si>
+  <si>
+    <t>0274</t>
+  </si>
+  <si>
+    <t>0275</t>
+  </si>
+  <si>
+    <t>0276</t>
+  </si>
+  <si>
+    <t>0277</t>
+  </si>
+  <si>
+    <t>0278</t>
+  </si>
+  <si>
+    <t>0279</t>
+  </si>
+  <si>
+    <t>0280</t>
+  </si>
+  <si>
+    <t>0281</t>
+  </si>
+  <si>
+    <t>0282</t>
+  </si>
+  <si>
+    <t>0283</t>
+  </si>
+  <si>
+    <t>0284</t>
+  </si>
+  <si>
+    <t>0285</t>
+  </si>
+  <si>
+    <t>0286</t>
+  </si>
+  <si>
+    <t>0287</t>
+  </si>
+  <si>
+    <t>0288</t>
+  </si>
+  <si>
+    <t>0289</t>
+  </si>
+  <si>
+    <t>0290</t>
+  </si>
+  <si>
+    <t>0291</t>
+  </si>
+  <si>
+    <t>0292</t>
+  </si>
+  <si>
+    <t>0293</t>
+  </si>
+  <si>
+    <t>0294</t>
+  </si>
+  <si>
+    <t>0295</t>
+  </si>
+  <si>
+    <t>0296</t>
+  </si>
+  <si>
+    <t>0297</t>
+  </si>
+  <si>
+    <t>0298</t>
+  </si>
+  <si>
+    <t>0299</t>
+  </si>
+  <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <t>0305</t>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>0309</t>
+  </si>
+  <si>
+    <t>0310</t>
+  </si>
+  <si>
+    <t>0311</t>
+  </si>
+  <si>
+    <t>0312</t>
+  </si>
+  <si>
+    <t>0313</t>
+  </si>
+  <si>
+    <t>0314</t>
+  </si>
+  <si>
+    <t>0315</t>
+  </si>
+  <si>
+    <t>0316</t>
+  </si>
+  <si>
+    <t>0317</t>
+  </si>
+  <si>
+    <t>CNV</t>
+  </si>
+  <si>
+    <t>Coberturas</t>
+  </si>
+  <si>
+    <t>MQC (100%) IEA (100%) IPTPA (100%) IAC (50%) AF (R$ 5.000,00)</t>
+  </si>
+  <si>
+    <t>MQC (100%)IEA (100%) IPTPA (150%) RC (10%) AF (R$5.000,00)</t>
+  </si>
+  <si>
+    <t>MQC (100%) IPTPA (100%) AF (5.000,00)</t>
+  </si>
+  <si>
+    <t>MQC (100%) IPTA (100%) CB (1XR$ 900) AF (R$ 6.000,00)</t>
+  </si>
+  <si>
+    <t>MQC (100%) IPTA (100%) CB (1XR$2.520,00) AF (R$5.000,00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQC (100%) IPTPA (100%) </t>
+  </si>
+  <si>
+    <t>MQC (100%) IEA (100%) IPTPA (200%) (IFPD 25%) ILPD (25%) IAC (50%) IAF (27,5%) RC (10%) AF (R$ 5.000,00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQC (100%) IEA (100%) IPTPA (150%) ILPD (100%) RC (10%) CB (1XR$500,00) AF (R$ 6.546,46)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQC (100%)IEA (100%) IPTPA (200%) </t>
+  </si>
+  <si>
+    <t>MQC (100%) IPTPA (100%) CB (1XR$1.260,00) AF (5.000,00)</t>
+  </si>
+  <si>
+    <t>MQC (100%) IPTPA (100%)</t>
+  </si>
+  <si>
+    <t>MQC (100%) IPTA (100%) IAC (100%) CB (1XR$500,00) AF (R$5.000,00)</t>
+  </si>
+  <si>
+    <t>MQC (100%) IPTA (100%) RC (7,5%) CB (1XR$1.200,00) CN (1KIT) AF (R$5.000,00)</t>
+  </si>
+  <si>
+    <t>MQC (100%)IEA (100%) IPTPA (200%) ILPD (100%) AF (R$5.000,00)</t>
+  </si>
+  <si>
+    <t>MQC (100%) IPTA (100%) IFPD (100%) ILPD (100%) AF (R$5.000,00)</t>
+  </si>
+  <si>
+    <t>MQC (100%)IEA (100%) IPTPA (150%) RC (25%) AF (R$6.000,00)</t>
+  </si>
+  <si>
+    <t>MQC (100%) IEA (100%) IPTPA (100%) ILPD (25%) CB (1XR$500,00) CN (1KIT)AF (R$ 5.225,00)</t>
+  </si>
+  <si>
+    <t>MQC (100%) IPTA (100%) ILPD (100%) AF (R$5.000,00)</t>
+  </si>
+  <si>
+    <t>MQC (100%)IEA (100%) AF (R$5.000,00)</t>
+  </si>
+  <si>
+    <t>MQC (100%)</t>
+  </si>
+  <si>
+    <t>0318</t>
+  </si>
+  <si>
+    <t>GERENTES</t>
+  </si>
+  <si>
+    <t>MQC (100%) AF (R$5.000,00)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +1083,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +1124,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +1412,2590 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B128" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B138" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B156" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B157" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B162" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B163" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B164" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B166" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B167" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B168" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B169" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B170" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B171" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B173" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B174" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B175" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B176" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B177" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B178" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B179" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B186" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B187" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B189" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B191" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B192" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B193" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B195" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B197" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B198" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B199" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B200" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B201" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B202" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B204" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B205" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B206" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B207" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B208" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B210" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B211" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B212" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B213" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B214" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B215" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B216" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B217" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B218" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B219" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B220" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B221" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B222" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B223" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B224" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B225" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B226" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B227" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B228" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B229" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B230" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B231" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B232" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B233" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B234" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B235" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B236" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B237" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B238" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B239" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B240" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B241" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B242" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B243" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B244" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B245" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B246" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B247" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B248" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B249" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B250" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B251" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B252" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B253" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B254" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B255" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B256" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B257" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B258" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B259" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B260" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B261" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B262" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B263" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B264" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B265" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B266" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B267" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B268" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B269" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B270" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B271" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B272" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B273" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B274" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B275" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B276" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B277" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B278" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B279" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B280" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B281" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B282" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B283" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B284" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B285" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B286" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B287" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B288" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B289" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B290" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B291" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B292" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B293" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B294" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B295" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B296" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B297" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B298" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B299" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B300" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B301" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B302" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B303" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B304" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B305" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B306" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B307" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B308" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B309" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B310" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B311" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B312" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B313" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B314" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B315" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B316" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B317" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B318" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B319" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B320" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B321" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B321" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>